--- a/data/medical_dm_posterior_prior.xlsx
+++ b/data/medical_dm_posterior_prior.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\gareth\cegpy\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DB9DD-0B6F-4D7D-87A1-A0E4BB2F2051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3390" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +69,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +155,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +207,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,14 +400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1.5</v>
       </c>
@@ -354,7 +417,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -365,7 +428,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -376,7 +439,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.25</v>
       </c>
@@ -384,7 +447,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.25</v>
       </c>
@@ -392,7 +455,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.25</v>
       </c>
@@ -400,7 +463,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -408,7 +471,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.25</v>
       </c>
@@ -416,7 +479,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.25</v>
       </c>
@@ -424,7 +487,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.125</v>
       </c>
@@ -432,7 +495,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.125</v>
       </c>
@@ -440,7 +503,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.125</v>
       </c>
@@ -448,7 +511,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.125</v>
       </c>
@@ -456,7 +519,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.125</v>
       </c>
@@ -464,7 +527,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.125</v>
       </c>
@@ -472,7 +535,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.125</v>
       </c>
@@ -480,7 +543,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.125</v>
       </c>
@@ -488,7 +551,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.125</v>
       </c>
@@ -496,7 +559,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.125</v>
       </c>
@@ -504,7 +567,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.125</v>
       </c>
@@ -512,7 +575,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.125</v>
       </c>
@@ -520,7 +583,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5501.5</v>
       </c>
@@ -528,7 +591,7 @@
         <v>5501.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>800.5</v>
       </c>
@@ -539,7 +602,7 @@
         <v>3700.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>800.5</v>
       </c>
@@ -550,7 +613,7 @@
         <v>3700.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>400.25</v>
       </c>
@@ -558,7 +621,7 @@
         <v>400.25</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>500.25</v>
       </c>
@@ -566,7 +629,7 @@
         <v>500.25</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1850.25</v>
       </c>
@@ -574,7 +637,7 @@
         <v>1850.25</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>400.25</v>
       </c>
@@ -582,7 +645,7 @@
         <v>400.25</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>500.25</v>
       </c>
@@ -590,7 +653,7 @@
         <v>500.25</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1850.25</v>
       </c>
@@ -598,7 +661,7 @@
         <v>1850.25</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>393.125</v>
       </c>
@@ -606,7 +669,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>347.125</v>
       </c>
@@ -614,7 +677,7 @@
         <v>52.125</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>480.125</v>
       </c>
@@ -622,7 +685,7 @@
         <v>20.125</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>433.125</v>
       </c>
@@ -630,7 +693,7 @@
         <v>67.125</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1482.125</v>
       </c>
@@ -638,7 +701,7 @@
         <v>364.125</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1305.125</v>
       </c>
@@ -646,7 +709,7 @@
         <v>542.125</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.125</v>
       </c>
@@ -654,7 +717,7 @@
         <v>395.125</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>92.125</v>
       </c>
@@ -662,7 +725,7 @@
         <v>307.125</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>70.125</v>
       </c>
@@ -670,7 +733,7 @@
         <v>430.125</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>202.125</v>
       </c>
@@ -678,7 +741,7 @@
         <v>296.125</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>338.125</v>
       </c>
@@ -686,7 +749,7 @@
         <v>1511.125</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>716.125</v>
       </c>

--- a/data/medical_dm_posterior_prior.xlsx
+++ b/data/medical_dm_posterior_prior.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\gareth\cegpy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DB9DD-0B6F-4D7D-87A1-A0E4BB2F2051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D191D5-B4F6-4934-80FB-CC1C3453F973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="2250" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,80 +585,100 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>5501.5</v>
+        <f>5491+A1</f>
+        <v>5492.5</v>
       </c>
       <c r="B23">
-        <v>5501.5</v>
+        <f>5493+B1</f>
+        <v>5494.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>800.5</v>
+        <f>798+A2</f>
+        <v>798.5</v>
       </c>
       <c r="B24">
+        <f>1000+B2</f>
         <v>1000.5</v>
       </c>
       <c r="C24">
-        <v>3700.5</v>
+        <f>3693+C2</f>
+        <v>3693.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>800.5</v>
+        <f>799+A3</f>
+        <v>799.5</v>
       </c>
       <c r="B25">
-        <v>1000.5</v>
+        <f>998+B3</f>
+        <v>998.5</v>
       </c>
       <c r="C25">
-        <v>3700.5</v>
+        <f>3696+C3</f>
+        <v>3696.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>400.25</v>
+        <f>399+A4</f>
+        <v>399.25</v>
       </c>
       <c r="B26">
-        <v>400.25</v>
+        <f>399+B4</f>
+        <v>399.25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
+        <f>500+A5</f>
         <v>500.25</v>
       </c>
       <c r="B27">
+        <f>500+B5</f>
         <v>500.25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1850.25</v>
+        <f>1846+A6</f>
+        <v>1846.25</v>
       </c>
       <c r="B28">
-        <v>1850.25</v>
+        <f>1847+B6</f>
+        <v>1847.25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
+        <f>400+A7</f>
         <v>400.25</v>
       </c>
       <c r="B29">
-        <v>400.25</v>
+        <f>399+B7</f>
+        <v>399.25</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
+        <f>500+A8</f>
         <v>500.25</v>
       </c>
       <c r="B30">
-        <v>500.25</v>
+        <f>498+B8</f>
+        <v>498.25</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1850.25</v>
+        <f>1849+A9</f>
+        <v>1849.25</v>
       </c>
       <c r="B31">
-        <v>1850.25</v>
+        <f>1847+B9</f>
+        <v>1847.25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
